--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -17,10 +17,11 @@
     <sheet name="SubClause" sheetId="12" r:id="rId12"/>
     <sheet name="Contract" sheetId="13" r:id="rId13"/>
     <sheet name="Beneficial" sheetId="14" r:id="rId14"/>
-    <sheet name="ContractTemplate" sheetId="15" r:id="rId15"/>
-    <sheet name="ContractTemplate_Clause" sheetId="16" r:id="rId16"/>
-    <sheet name="Event" sheetId="17" r:id="rId17"/>
-    <sheet name="Event_User" sheetId="18" r:id="rId18"/>
+    <sheet name="Document" sheetId="15" r:id="rId15"/>
+    <sheet name="ContractTemplate" sheetId="16" r:id="rId16"/>
+    <sheet name="ContractTemplate_Clause" sheetId="17" r:id="rId17"/>
+    <sheet name="Event" sheetId="18" r:id="rId18"/>
+    <sheet name="Event_User" sheetId="19" r:id="rId19"/>
   </sheets>
 </workbook>
 </file>
@@ -1266,6 +1267,112 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>file</v>
+      </c>
+      <c r="E1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="F1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>clientId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(64)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>UUID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>Client</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1406,7 +1513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1524,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -1666,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -1101,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,27 +1120,39 @@
         <v>email</v>
       </c>
       <c r="E1" t="str">
+        <v>jobTitle</v>
+      </c>
+      <c r="F1" t="str">
+        <v>passport</v>
+      </c>
+      <c r="G1" t="str">
+        <v>cin</v>
+      </c>
+      <c r="H1" t="str">
         <v>firstName</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>lastName</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>dateOfBirth</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>placeOfBirth</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
+        <v>address</v>
+      </c>
+      <c r="M1" t="str">
         <v>fullName</v>
       </c>
-      <c r="J1" t="str">
+      <c r="N1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="K1" t="str">
+      <c r="O1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="L1" t="str">
+      <c r="P1" t="str">
         <v>clientId</v>
       </c>
     </row>
@@ -1161,24 +1173,36 @@
         <v>VARCHAR(50)</v>
       </c>
       <c r="F2" t="str">
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="G2" t="str">
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="H2" t="str">
         <v>VARCHAR(50)</v>
       </c>
-      <c r="G2" t="str">
+      <c r="I2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="J2" t="str">
         <v>DATE</v>
       </c>
-      <c r="H2" t="str">
+      <c r="K2" t="str">
         <v>VARCHAR(128)</v>
       </c>
-      <c r="I2" t="str">
+      <c r="L2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="M2" t="str">
         <v>VIRTUAL</v>
       </c>
-      <c r="J2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="K2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="N2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="O2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="P2" t="str">
         <v>UUID</v>
       </c>
     </row>
@@ -1217,6 +1241,18 @@
         <v/>
       </c>
       <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1255,12 +1291,24 @@
         <v/>
       </c>
       <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
         <v>Client</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -20,8 +20,11 @@
     <sheet name="Document" sheetId="15" r:id="rId15"/>
     <sheet name="ContractTemplate" sheetId="16" r:id="rId16"/>
     <sheet name="ContractTemplate_Clause" sheetId="17" r:id="rId17"/>
-    <sheet name="Event" sheetId="18" r:id="rId18"/>
-    <sheet name="Event_User" sheetId="19" r:id="rId19"/>
+    <sheet name="ContractAI" sheetId="18" r:id="rId18"/>
+    <sheet name="ContractAIForm" sheetId="19" r:id="rId19"/>
+    <sheet name="ContractAIResponse" sheetId="20" r:id="rId20"/>
+    <sheet name="Event" sheetId="21" r:id="rId21"/>
+    <sheet name="Event_User" sheetId="22" r:id="rId22"/>
   </sheets>
 </workbook>
 </file>
@@ -1681,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1694,28 +1697,31 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>title</v>
+        <v>status</v>
       </c>
       <c r="D1" t="str">
-        <v>flag</v>
+        <v>name</v>
       </c>
       <c r="E1" t="str">
-        <v>startDate</v>
+        <v>content</v>
       </c>
       <c r="F1" t="str">
-        <v>endDate</v>
+        <v>file</v>
       </c>
       <c r="G1" t="str">
-        <v>allDay</v>
+        <v>summarySheet</v>
       </c>
       <c r="H1" t="str">
-        <v>description</v>
+        <v>clientId</v>
       </c>
       <c r="I1" t="str">
         <v>createdAt</v>
       </c>
       <c r="J1" t="str">
         <v>updatedAt</v>
+      </c>
+      <c r="K1" t="str">
+        <v>formId</v>
       </c>
     </row>
     <row r="2">
@@ -1729,25 +1735,28 @@
         <v>VARCHAR(255)</v>
       </c>
       <c r="D2" t="str">
-        <v>ENUM</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>TEXT</v>
       </c>
       <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>VARCHAR(64)</v>
       </c>
       <c r="G2" t="str">
-        <v>BOOLEAN</v>
+        <v>TEXT</v>
       </c>
       <c r="H2" t="str">
-        <v>TEXT</v>
+        <v>UUID</v>
       </c>
       <c r="I2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="J2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="K2" t="str">
+        <v>INTEGER</v>
       </c>
     </row>
     <row r="3">
@@ -1773,13 +1782,16 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="I3" t="str">
         <v/>
       </c>
       <c r="J3" t="str">
         <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>Yes</v>
       </c>
     </row>
     <row r="4">
@@ -1805,25 +1817,28 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>Client</v>
       </c>
       <c r="I4" t="str">
         <v/>
       </c>
       <c r="J4" t="str">
         <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>ContractAIForm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1836,16 +1851,31 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
+        <v>language</v>
+      </c>
+      <c r="D1" t="str">
+        <v>code</v>
+      </c>
+      <c r="E1" t="str">
+        <v>name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>form</v>
+      </c>
+      <c r="G1" t="str">
+        <v>level1Id</v>
+      </c>
+      <c r="H1" t="str">
+        <v>level2Id</v>
+      </c>
+      <c r="I1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="D1" t="str">
+      <c r="J1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="E1" t="str">
-        <v>EventId</v>
-      </c>
-      <c r="F1" t="str">
-        <v>UserId</v>
+      <c r="K1" t="str">
+        <v>level3Id</v>
       </c>
     </row>
     <row r="2">
@@ -1856,16 +1886,31 @@
         <v>INTEGER</v>
       </c>
       <c r="C2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>ENUM</v>
       </c>
       <c r="D2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="E2" t="str">
-        <v>INTEGER</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="F2" t="str">
-        <v>UUID</v>
+        <v>TEXT</v>
+      </c>
+      <c r="G2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="H2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="I2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="J2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="K2" t="str">
+        <v>INTEGER</v>
       </c>
     </row>
     <row r="3">
@@ -1887,6 +1932,21 @@
       <c r="F3" t="str">
         <v/>
       </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>Yes</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1902,15 +1962,30 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>Event</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>User</v>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>TypeLevel1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>TypeLevel2</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>TypeLevel3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2149,6 +2224,360 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:R4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>externalId</v>
+      </c>
+      <c r="D1" t="str">
+        <v>info</v>
+      </c>
+      <c r="E1" t="str">
+        <v>content</v>
+      </c>
+      <c r="F1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="H1" t="str">
+        <v>contractAIId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="H2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>ContractAI</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>flag</v>
+      </c>
+      <c r="E1" t="str">
+        <v>startDate</v>
+      </c>
+      <c r="F1" t="str">
+        <v>endDate</v>
+      </c>
+      <c r="G1" t="str">
+        <v>allDay</v>
+      </c>
+      <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="J1" t="str">
+        <v>updatedAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>ENUM</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>BOOLEAN</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="I2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="J2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="D1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="E1" t="str">
+        <v>EventId</v>
+      </c>
+      <c r="F1" t="str">
+        <v>UserId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="E2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="F2" t="str">
+        <v>UUID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>Event</v>
+      </c>
+      <c r="F4" t="str">
+        <v>User</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -1684,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1703,24 +1703,27 @@
         <v>name</v>
       </c>
       <c r="E1" t="str">
-        <v>content</v>
+        <v>file</v>
       </c>
       <c r="F1" t="str">
-        <v>file</v>
+        <v>textFile</v>
       </c>
       <c r="G1" t="str">
+        <v>openAIId</v>
+      </c>
+      <c r="H1" t="str">
         <v>summarySheet</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>clientId</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>formId</v>
       </c>
     </row>
@@ -1738,24 +1741,27 @@
         <v>VARCHAR(255)</v>
       </c>
       <c r="E2" t="str">
-        <v>TEXT</v>
+        <v>VARCHAR(64)</v>
       </c>
       <c r="F2" t="str">
         <v>VARCHAR(64)</v>
       </c>
       <c r="G2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="H2" t="str">
         <v>TEXT</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <v>UUID</v>
       </c>
-      <c r="I2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
       <c r="J2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="K2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="L2" t="str">
         <v>INTEGER</v>
       </c>
     </row>
@@ -1782,15 +1788,18 @@
         <v/>
       </c>
       <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
         <v>Yes</v>
       </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
       <c r="J3" t="str">
         <v/>
       </c>
       <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1817,21 +1826,24 @@
         <v/>
       </c>
       <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
         <v>Client</v>
       </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
       <c r="J4" t="str">
         <v/>
       </c>
       <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
         <v>ContractAIForm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -1850,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1872,21 +1872,27 @@
         <v>name</v>
       </c>
       <c r="F1" t="str">
+        <v>systemPrompt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>userPrompt</v>
+      </c>
+      <c r="H1" t="str">
         <v>form</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>level1Id</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>level2Id</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>level3Id</v>
       </c>
     </row>
@@ -1907,21 +1913,27 @@
         <v>VARCHAR(255)</v>
       </c>
       <c r="F2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="G2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="H2" t="str">
         <v>TEXT</v>
       </c>
-      <c r="G2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="H2" t="str">
-        <v>INTEGER</v>
-      </c>
       <c r="I2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>INTEGER</v>
       </c>
       <c r="J2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>INTEGER</v>
       </c>
       <c r="K2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="L2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="M2" t="str">
         <v>INTEGER</v>
       </c>
     </row>
@@ -1945,18 +1957,24 @@
         <v/>
       </c>
       <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
         <v>Yes</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <v>Yes</v>
       </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
       <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1980,24 +1998,30 @@
         <v/>
       </c>
       <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
         <v>TypeLevel1</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <v>TypeLevel2</v>
       </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
       <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
         <v>TypeLevel3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="ExternalToken" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="Admin" sheetId="3" r:id="rId3"/>
-    <sheet name="Client" sheetId="4" r:id="rId4"/>
-    <sheet name="Moderator" sheetId="5" r:id="rId5"/>
-    <sheet name="Notification" sheetId="6" r:id="rId6"/>
-    <sheet name="Notification_User" sheetId="7" r:id="rId7"/>
-    <sheet name="TypeLevel1" sheetId="8" r:id="rId8"/>
-    <sheet name="TypeLevel2" sheetId="9" r:id="rId9"/>
-    <sheet name="TypeLevel3" sheetId="10" r:id="rId10"/>
-    <sheet name="Clause" sheetId="11" r:id="rId11"/>
-    <sheet name="SubClause" sheetId="12" r:id="rId12"/>
-    <sheet name="Contract" sheetId="13" r:id="rId13"/>
-    <sheet name="Beneficial" sheetId="14" r:id="rId14"/>
-    <sheet name="Document" sheetId="15" r:id="rId15"/>
-    <sheet name="ContractTemplate" sheetId="16" r:id="rId16"/>
-    <sheet name="ContractTemplate_Clause" sheetId="17" r:id="rId17"/>
-    <sheet name="ContractAI" sheetId="18" r:id="rId18"/>
-    <sheet name="ContractAIForm" sheetId="19" r:id="rId19"/>
-    <sheet name="ContractAIResponse" sheetId="20" r:id="rId20"/>
-    <sheet name="Event" sheetId="21" r:id="rId21"/>
-    <sheet name="Event_User" sheetId="22" r:id="rId22"/>
+    <sheet name="OpenAIResponseLog" sheetId="1" r:id="rId1"/>
+    <sheet name="ExternalToken" sheetId="2" r:id="rId2"/>
+    <sheet name="User" sheetId="3" r:id="rId3"/>
+    <sheet name="Admin" sheetId="4" r:id="rId4"/>
+    <sheet name="Client" sheetId="5" r:id="rId5"/>
+    <sheet name="Moderator" sheetId="6" r:id="rId6"/>
+    <sheet name="Notification" sheetId="7" r:id="rId7"/>
+    <sheet name="Notification_User" sheetId="8" r:id="rId8"/>
+    <sheet name="TypeLevel1" sheetId="9" r:id="rId9"/>
+    <sheet name="TypeLevel2" sheetId="10" r:id="rId10"/>
+    <sheet name="TypeLevel3" sheetId="11" r:id="rId11"/>
+    <sheet name="Clause" sheetId="12" r:id="rId12"/>
+    <sheet name="SubClause" sheetId="13" r:id="rId13"/>
+    <sheet name="Contract" sheetId="14" r:id="rId14"/>
+    <sheet name="Beneficial" sheetId="15" r:id="rId15"/>
+    <sheet name="Document" sheetId="16" r:id="rId16"/>
+    <sheet name="ContractTemplate" sheetId="17" r:id="rId17"/>
+    <sheet name="ContractTemplate_Clause" sheetId="18" r:id="rId18"/>
+    <sheet name="ContractAI" sheetId="19" r:id="rId19"/>
+    <sheet name="ContractAIForm" sheetId="20" r:id="rId20"/>
+    <sheet name="ContractAIResponse" sheetId="21" r:id="rId21"/>
+    <sheet name="Event" sheetId="22" r:id="rId22"/>
+    <sheet name="Event_User" sheetId="23" r:id="rId23"/>
   </sheets>
 </workbook>
 </file>
@@ -418,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,28 +432,43 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>UserType</v>
+        <v>user</v>
       </c>
       <c r="D1" t="str">
-        <v>token</v>
+        <v>object</v>
       </c>
       <c r="E1" t="str">
-        <v>ip</v>
+        <v>created</v>
       </c>
       <c r="F1" t="str">
-        <v>expiresAt</v>
+        <v>model</v>
       </c>
       <c r="G1" t="str">
-        <v>type</v>
+        <v>prompt_tokens</v>
       </c>
       <c r="H1" t="str">
+        <v>completion_tokens</v>
+      </c>
+      <c r="I1" t="str">
+        <v>total_tokens</v>
+      </c>
+      <c r="J1" t="str">
+        <v>role</v>
+      </c>
+      <c r="K1" t="str">
+        <v>content</v>
+      </c>
+      <c r="L1" t="str">
+        <v>index</v>
+      </c>
+      <c r="M1" t="str">
+        <v>finish_reason</v>
+      </c>
+      <c r="N1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="I1" t="str">
+      <c r="O1" t="str">
         <v>updatedAt</v>
-      </c>
-      <c r="J1" t="str">
-        <v>userId</v>
       </c>
     </row>
     <row r="2">
@@ -460,31 +476,46 @@
         <v>sqlType</v>
       </c>
       <c r="B2" t="str">
-        <v>INTEGER</v>
+        <v>VARCHAR(38)</v>
       </c>
       <c r="C2" t="str">
-        <v>ENUM</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="D2" t="str">
-        <v>VARCHAR(256)</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="E2" t="str">
-        <v>VARCHAR(16)</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="G2" t="str">
-        <v>ENUM</v>
+        <v>INTEGER</v>
       </c>
       <c r="H2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>INTEGER</v>
       </c>
       <c r="I2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>INTEGER</v>
       </c>
       <c r="J2" t="str">
-        <v>UUID</v>
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="K2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="L2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="M2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="N2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="O2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +547,22 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <v>Yes</v>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -548,17 +594,126 @@
         <v/>
       </c>
       <c r="J4" t="str">
-        <v>User</v>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="E1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="F1" t="str">
+        <v>level1Id</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>TypeLevel1</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -664,7 +819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -782,7 +937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -936,7 +1091,765 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>status</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>paramValues</v>
+      </c>
+      <c r="F1" t="str">
+        <v>excludedClauses</v>
+      </c>
+      <c r="G1" t="str">
+        <v>excludedSubClauses</v>
+      </c>
+      <c r="H1" t="str">
+        <v>annexes</v>
+      </c>
+      <c r="I1" t="str">
+        <v>fileNames</v>
+      </c>
+      <c r="J1" t="str">
+        <v>clientId</v>
+      </c>
+      <c r="K1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="L1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="M1" t="str">
+        <v>templateId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="G2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="I2" t="str">
+        <v>VIRTUAL</v>
+      </c>
+      <c r="J2" t="str">
+        <v>UUID</v>
+      </c>
+      <c r="K2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="L2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="M2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v>Client</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v>ContractTemplate</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>email</v>
+      </c>
+      <c r="E1" t="str">
+        <v>jobTitle</v>
+      </c>
+      <c r="F1" t="str">
+        <v>passport</v>
+      </c>
+      <c r="G1" t="str">
+        <v>cin</v>
+      </c>
+      <c r="H1" t="str">
+        <v>firstName</v>
+      </c>
+      <c r="I1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="J1" t="str">
+        <v>dateOfBirth</v>
+      </c>
+      <c r="K1" t="str">
+        <v>placeOfBirth</v>
+      </c>
+      <c r="L1" t="str">
+        <v>address</v>
+      </c>
+      <c r="M1" t="str">
+        <v>fullName</v>
+      </c>
+      <c r="N1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="O1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="P1" t="str">
+        <v>clientId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="F2" t="str">
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="G2" t="str">
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="H2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="I2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="J2" t="str">
+        <v>DATE</v>
+      </c>
+      <c r="K2" t="str">
+        <v>VARCHAR(128)</v>
+      </c>
+      <c r="L2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="M2" t="str">
+        <v>VIRTUAL</v>
+      </c>
+      <c r="N2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="O2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="P2" t="str">
+        <v>UUID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v>Client</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>file</v>
+      </c>
+      <c r="E1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="F1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>clientId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(64)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>UUID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>Client</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>language</v>
+      </c>
+      <c r="D1" t="str">
+        <v>code</v>
+      </c>
+      <c r="E1" t="str">
+        <v>name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>level1Id</v>
+      </c>
+      <c r="G1" t="str">
+        <v>level2Id</v>
+      </c>
+      <c r="H1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="I1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="J1" t="str">
+        <v>level3Id</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ENUM</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="F2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="G2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="I2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="J2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>TypeLevel1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>TypeLevel2</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v>TypeLevel3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>index</v>
+      </c>
+      <c r="D1" t="str">
+        <v>isOptional</v>
+      </c>
+      <c r="E1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="F1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ContractTemplateId</v>
+      </c>
+      <c r="H1" t="str">
+        <v>ClauseId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(8)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>BOOLEAN</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="H2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>ContractTemplate</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Clause</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -957,16 +1870,16 @@
         <v>name</v>
       </c>
       <c r="E1" t="str">
-        <v>paramValues</v>
+        <v>file</v>
       </c>
       <c r="F1" t="str">
-        <v>excludedClauses</v>
+        <v>textFile</v>
       </c>
       <c r="G1" t="str">
-        <v>excludedSubClauses</v>
+        <v>openAIId</v>
       </c>
       <c r="H1" t="str">
-        <v>annexes</v>
+        <v>summarySheet</v>
       </c>
       <c r="I1" t="str">
         <v>clientId</v>
@@ -978,7 +1891,7 @@
         <v>updatedAt</v>
       </c>
       <c r="L1" t="str">
-        <v>templateId</v>
+        <v>formId</v>
       </c>
     </row>
     <row r="2">
@@ -995,13 +1908,13 @@
         <v>VARCHAR(255)</v>
       </c>
       <c r="E2" t="str">
-        <v>TEXT</v>
+        <v>VARCHAR(64)</v>
       </c>
       <c r="F2" t="str">
-        <v>TEXT</v>
+        <v>VARCHAR(64)</v>
       </c>
       <c r="G2" t="str">
-        <v>TEXT</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="H2" t="str">
         <v>TEXT</v>
@@ -1092,7 +2005,7 @@
         <v/>
       </c>
       <c r="L4" t="str">
-        <v>ContractTemplate</v>
+        <v>ContractAIForm</v>
       </c>
     </row>
   </sheetData>
@@ -1102,327 +2015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>email</v>
-      </c>
-      <c r="E1" t="str">
-        <v>jobTitle</v>
-      </c>
-      <c r="F1" t="str">
-        <v>passport</v>
-      </c>
-      <c r="G1" t="str">
-        <v>cin</v>
-      </c>
-      <c r="H1" t="str">
-        <v>firstName</v>
-      </c>
-      <c r="I1" t="str">
-        <v>lastName</v>
-      </c>
-      <c r="J1" t="str">
-        <v>dateOfBirth</v>
-      </c>
-      <c r="K1" t="str">
-        <v>placeOfBirth</v>
-      </c>
-      <c r="L1" t="str">
-        <v>address</v>
-      </c>
-      <c r="M1" t="str">
-        <v>fullName</v>
-      </c>
-      <c r="N1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="O1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="P1" t="str">
-        <v>clientId</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>VARCHAR(50)</v>
-      </c>
-      <c r="E2" t="str">
-        <v>VARCHAR(50)</v>
-      </c>
-      <c r="F2" t="str">
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="G2" t="str">
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="H2" t="str">
-        <v>VARCHAR(50)</v>
-      </c>
-      <c r="I2" t="str">
-        <v>VARCHAR(50)</v>
-      </c>
-      <c r="J2" t="str">
-        <v>DATE</v>
-      </c>
-      <c r="K2" t="str">
-        <v>VARCHAR(128)</v>
-      </c>
-      <c r="L2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="M2" t="str">
-        <v>VIRTUAL</v>
-      </c>
-      <c r="N2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="O2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="P2" t="str">
-        <v>UUID</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <v>Client</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>file</v>
-      </c>
-      <c r="E1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="F1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="G1" t="str">
-        <v>clientId</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>VARCHAR(64)</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>UUID</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v>Client</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -1437,19 +2030,19 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>language</v>
+        <v>UserType</v>
       </c>
       <c r="D1" t="str">
-        <v>code</v>
+        <v>token</v>
       </c>
       <c r="E1" t="str">
-        <v>name</v>
+        <v>ip</v>
       </c>
       <c r="F1" t="str">
-        <v>level1Id</v>
+        <v>expiresAt</v>
       </c>
       <c r="G1" t="str">
-        <v>level2Id</v>
+        <v>type</v>
       </c>
       <c r="H1" t="str">
         <v>createdAt</v>
@@ -1458,7 +2051,7 @@
         <v>updatedAt</v>
       </c>
       <c r="J1" t="str">
-        <v>level3Id</v>
+        <v>userId</v>
       </c>
     </row>
     <row r="2">
@@ -1472,16 +2065,16 @@
         <v>ENUM</v>
       </c>
       <c r="D2" t="str">
-        <v>VARCHAR(255)</v>
+        <v>VARCHAR(256)</v>
       </c>
       <c r="E2" t="str">
-        <v>VARCHAR(255)</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="F2" t="str">
-        <v>INTEGER</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="G2" t="str">
-        <v>INTEGER</v>
+        <v>ENUM</v>
       </c>
       <c r="H2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
@@ -1490,7 +2083,7 @@
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="J2" t="str">
-        <v>INTEGER</v>
+        <v>UUID</v>
       </c>
     </row>
     <row r="3">
@@ -1510,10 +2103,10 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -1542,10 +2135,10 @@
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>TypeLevel1</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>TypeLevel2</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -1554,7 +2147,7 @@
         <v/>
       </c>
       <c r="J4" t="str">
-        <v>TypeLevel3</v>
+        <v>User</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +2157,185 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>language</v>
+      </c>
+      <c r="D1" t="str">
+        <v>code</v>
+      </c>
+      <c r="E1" t="str">
+        <v>name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>systemPrompt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>userPrompt</v>
+      </c>
+      <c r="H1" t="str">
+        <v>form</v>
+      </c>
+      <c r="I1" t="str">
+        <v>level1Id</v>
+      </c>
+      <c r="J1" t="str">
+        <v>level2Id</v>
+      </c>
+      <c r="K1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="L1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="M1" t="str">
+        <v>level3Id</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ENUM</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="F2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="G2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="I2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="J2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="K2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="L2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="M2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>TypeLevel1</v>
+      </c>
+      <c r="J4" t="str">
+        <v>TypeLevel2</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v>TypeLevel3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1579,22 +2350,22 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>index</v>
+        <v>externalId</v>
       </c>
       <c r="D1" t="str">
-        <v>isOptional</v>
+        <v>info</v>
       </c>
       <c r="E1" t="str">
+        <v>content</v>
+      </c>
+      <c r="F1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="G1" t="str">
-        <v>ContractTemplateId</v>
-      </c>
       <c r="H1" t="str">
-        <v>ClauseId</v>
+        <v>contractAIId</v>
       </c>
     </row>
     <row r="2">
@@ -1605,19 +2376,19 @@
         <v>INTEGER</v>
       </c>
       <c r="C2" t="str">
-        <v>VARCHAR(8)</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="D2" t="str">
-        <v>BOOLEAN</v>
+        <v>TEXT</v>
       </c>
       <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>TEXT</v>
       </c>
       <c r="F2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="G2" t="str">
-        <v>INTEGER</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="H2" t="str">
         <v>INTEGER</v>
@@ -1646,7 +2417,7 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
     </row>
     <row r="4">
@@ -1669,10 +2440,10 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>ContractTemplate</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>Clause</v>
+        <v>ContractAI</v>
       </c>
     </row>
   </sheetData>
@@ -1682,9 +2453,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1697,34 +2468,28 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>status</v>
+        <v>title</v>
       </c>
       <c r="D1" t="str">
-        <v>name</v>
+        <v>flag</v>
       </c>
       <c r="E1" t="str">
-        <v>file</v>
+        <v>startDate</v>
       </c>
       <c r="F1" t="str">
-        <v>textFile</v>
+        <v>endDate</v>
       </c>
       <c r="G1" t="str">
-        <v>openAIId</v>
+        <v>allDay</v>
       </c>
       <c r="H1" t="str">
-        <v>summarySheet</v>
+        <v>description</v>
       </c>
       <c r="I1" t="str">
-        <v>clientId</v>
+        <v>createdAt</v>
       </c>
       <c r="J1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="K1" t="str">
         <v>updatedAt</v>
-      </c>
-      <c r="L1" t="str">
-        <v>formId</v>
       </c>
     </row>
     <row r="2">
@@ -1738,31 +2503,25 @@
         <v>VARCHAR(255)</v>
       </c>
       <c r="D2" t="str">
-        <v>VARCHAR(255)</v>
+        <v>ENUM</v>
       </c>
       <c r="E2" t="str">
-        <v>VARCHAR(64)</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="F2" t="str">
-        <v>VARCHAR(64)</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="G2" t="str">
-        <v>VARCHAR(255)</v>
+        <v>BOOLEAN</v>
       </c>
       <c r="H2" t="str">
         <v>TEXT</v>
       </c>
       <c r="I2" t="str">
-        <v>UUID</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="J2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="K2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="L2" t="str">
-        <v>INTEGER</v>
       </c>
     </row>
     <row r="3">
@@ -1791,16 +2550,10 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="J3" t="str">
         <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v>Yes</v>
       </c>
     </row>
     <row r="4">
@@ -1829,28 +2582,22 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>Client</v>
+        <v/>
       </c>
       <c r="J4" t="str">
         <v/>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v>ContractAIForm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1863,37 +2610,16 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>language</v>
+        <v>createdAt</v>
       </c>
       <c r="D1" t="str">
-        <v>code</v>
+        <v>updatedAt</v>
       </c>
       <c r="E1" t="str">
-        <v>name</v>
+        <v>EventId</v>
       </c>
       <c r="F1" t="str">
-        <v>systemPrompt</v>
-      </c>
-      <c r="G1" t="str">
-        <v>userPrompt</v>
-      </c>
-      <c r="H1" t="str">
-        <v>form</v>
-      </c>
-      <c r="I1" t="str">
-        <v>level1Id</v>
-      </c>
-      <c r="J1" t="str">
-        <v>level2Id</v>
-      </c>
-      <c r="K1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="L1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="M1" t="str">
-        <v>level3Id</v>
+        <v>UserId</v>
       </c>
     </row>
     <row r="2">
@@ -1904,37 +2630,16 @@
         <v>INTEGER</v>
       </c>
       <c r="C2" t="str">
-        <v>ENUM</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="D2" t="str">
-        <v>VARCHAR(255)</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="E2" t="str">
-        <v>VARCHAR(255)</v>
+        <v>INTEGER</v>
       </c>
       <c r="F2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="G2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="H2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="I2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="J2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="K2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="L2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="M2" t="str">
-        <v>INTEGER</v>
+        <v>UUID</v>
       </c>
     </row>
     <row r="3">
@@ -1956,27 +2661,6 @@
       <c r="F3" t="str">
         <v/>
       </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v>Yes</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1992,41 +2676,20 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>Event</v>
       </c>
       <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>TypeLevel1</v>
-      </c>
-      <c r="J4" t="str">
-        <v>TypeLevel2</v>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <v>TypeLevel3</v>
+        <v>User</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -2260,430 +2923,6 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:R4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>externalId</v>
-      </c>
-      <c r="D1" t="str">
-        <v>info</v>
-      </c>
-      <c r="E1" t="str">
-        <v>content</v>
-      </c>
-      <c r="F1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="G1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="H1" t="str">
-        <v>contractAIId</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="H2" t="str">
-        <v>INTEGER</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v>ContractAI</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>title</v>
-      </c>
-      <c r="D1" t="str">
-        <v>flag</v>
-      </c>
-      <c r="E1" t="str">
-        <v>startDate</v>
-      </c>
-      <c r="F1" t="str">
-        <v>endDate</v>
-      </c>
-      <c r="G1" t="str">
-        <v>allDay</v>
-      </c>
-      <c r="H1" t="str">
-        <v>description</v>
-      </c>
-      <c r="I1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="J1" t="str">
-        <v>updatedAt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>ENUM</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="H2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="I2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="J2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="D1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="E1" t="str">
-        <v>EventId</v>
-      </c>
-      <c r="F1" t="str">
-        <v>UserId</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="E2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="F2" t="str">
-        <v>UUID</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>Event</v>
-      </c>
-      <c r="F4" t="str">
-        <v>User</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="D1" t="str">
-        <v>updatedAt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>UUID</v>
-      </c>
-      <c r="C2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v>User</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2830,6 +3069,76 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="D1" t="str">
+        <v>updatedAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>UUID</v>
+      </c>
+      <c r="C2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v>User</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2958,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3064,7 +3373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3144,98 +3453,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="E1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="F1" t="str">
-        <v>level1Id</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="F2" t="str">
-        <v>INTEGER</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v>TypeLevel1</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -4,28 +4,29 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="OpenAIResponseLog" sheetId="1" r:id="rId1"/>
-    <sheet name="ExternalToken" sheetId="2" r:id="rId2"/>
-    <sheet name="User" sheetId="3" r:id="rId3"/>
-    <sheet name="Admin" sheetId="4" r:id="rId4"/>
-    <sheet name="Client" sheetId="5" r:id="rId5"/>
-    <sheet name="Moderator" sheetId="6" r:id="rId6"/>
-    <sheet name="Notification" sheetId="7" r:id="rId7"/>
-    <sheet name="Notification_User" sheetId="8" r:id="rId8"/>
-    <sheet name="TypeLevel1" sheetId="9" r:id="rId9"/>
-    <sheet name="TypeLevel2" sheetId="10" r:id="rId10"/>
-    <sheet name="TypeLevel3" sheetId="11" r:id="rId11"/>
-    <sheet name="Clause" sheetId="12" r:id="rId12"/>
-    <sheet name="SubClause" sheetId="13" r:id="rId13"/>
-    <sheet name="Contract" sheetId="14" r:id="rId14"/>
-    <sheet name="Beneficial" sheetId="15" r:id="rId15"/>
-    <sheet name="Document" sheetId="16" r:id="rId16"/>
-    <sheet name="ContractTemplate" sheetId="17" r:id="rId17"/>
-    <sheet name="ContractTemplate_Clause" sheetId="18" r:id="rId18"/>
-    <sheet name="ContractAI" sheetId="19" r:id="rId19"/>
-    <sheet name="ContractAIForm" sheetId="20" r:id="rId20"/>
-    <sheet name="ContractAIResponse" sheetId="21" r:id="rId21"/>
-    <sheet name="Event" sheetId="22" r:id="rId22"/>
-    <sheet name="Event_User" sheetId="23" r:id="rId23"/>
+    <sheet name="ContractUnion" sheetId="2" r:id="rId2"/>
+    <sheet name="ExternalToken" sheetId="3" r:id="rId3"/>
+    <sheet name="User" sheetId="4" r:id="rId4"/>
+    <sheet name="Admin" sheetId="5" r:id="rId5"/>
+    <sheet name="Client" sheetId="6" r:id="rId6"/>
+    <sheet name="Moderator" sheetId="7" r:id="rId7"/>
+    <sheet name="Notification" sheetId="8" r:id="rId8"/>
+    <sheet name="Notification_User" sheetId="9" r:id="rId9"/>
+    <sheet name="TypeLevel1" sheetId="10" r:id="rId10"/>
+    <sheet name="TypeLevel2" sheetId="11" r:id="rId11"/>
+    <sheet name="TypeLevel3" sheetId="12" r:id="rId12"/>
+    <sheet name="Clause" sheetId="13" r:id="rId13"/>
+    <sheet name="SubClause" sheetId="14" r:id="rId14"/>
+    <sheet name="Contract" sheetId="15" r:id="rId15"/>
+    <sheet name="Beneficial" sheetId="16" r:id="rId16"/>
+    <sheet name="Document" sheetId="17" r:id="rId17"/>
+    <sheet name="ContractTemplate" sheetId="18" r:id="rId18"/>
+    <sheet name="ContractTemplate_Clause" sheetId="19" r:id="rId19"/>
+    <sheet name="ContractAI" sheetId="20" r:id="rId20"/>
+    <sheet name="ContractAIForm" sheetId="21" r:id="rId21"/>
+    <sheet name="ContractAIResponse" sheetId="22" r:id="rId22"/>
+    <sheet name="Event" sheetId="23" r:id="rId23"/>
+    <sheet name="Event_User" sheetId="24" r:id="rId24"/>
   </sheets>
 </workbook>
 </file>
@@ -621,6 +622,88 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="E1" t="str">
+        <v>updatedAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -713,7 +796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -819,7 +902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -937,7 +1020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1091,7 +1174,813 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>status</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>paramValues</v>
+      </c>
+      <c r="F1" t="str">
+        <v>excludedClauses</v>
+      </c>
+      <c r="G1" t="str">
+        <v>excludedSubClauses</v>
+      </c>
+      <c r="H1" t="str">
+        <v>annexes</v>
+      </c>
+      <c r="I1" t="str">
+        <v>fileNames</v>
+      </c>
+      <c r="J1" t="str">
+        <v>level1Id</v>
+      </c>
+      <c r="K1" t="str">
+        <v>level2Id</v>
+      </c>
+      <c r="L1" t="str">
+        <v>level3Id</v>
+      </c>
+      <c r="M1" t="str">
+        <v>clientId</v>
+      </c>
+      <c r="N1" t="str">
+        <v>level</v>
+      </c>
+      <c r="O1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="P1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>templateId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="G2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="I2" t="str">
+        <v>VIRTUAL</v>
+      </c>
+      <c r="J2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="K2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="L2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="M2" t="str">
+        <v>UUID</v>
+      </c>
+      <c r="N2" t="str">
+        <v>VIRTUAL</v>
+      </c>
+      <c r="O2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="P2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v>TypeLevel1</v>
+      </c>
+      <c r="K4" t="str">
+        <v>TypeLevel2</v>
+      </c>
+      <c r="L4" t="str">
+        <v>TypeLevel3</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Client</v>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v>ContractTemplate</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>email</v>
+      </c>
+      <c r="E1" t="str">
+        <v>jobTitle</v>
+      </c>
+      <c r="F1" t="str">
+        <v>passport</v>
+      </c>
+      <c r="G1" t="str">
+        <v>cin</v>
+      </c>
+      <c r="H1" t="str">
+        <v>firstName</v>
+      </c>
+      <c r="I1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="J1" t="str">
+        <v>dateOfBirth</v>
+      </c>
+      <c r="K1" t="str">
+        <v>placeOfBirth</v>
+      </c>
+      <c r="L1" t="str">
+        <v>address</v>
+      </c>
+      <c r="M1" t="str">
+        <v>fullName</v>
+      </c>
+      <c r="N1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="O1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="P1" t="str">
+        <v>clientId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="F2" t="str">
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="G2" t="str">
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="H2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="I2" t="str">
+        <v>VARCHAR(50)</v>
+      </c>
+      <c r="J2" t="str">
+        <v>DATE</v>
+      </c>
+      <c r="K2" t="str">
+        <v>VARCHAR(128)</v>
+      </c>
+      <c r="L2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="M2" t="str">
+        <v>VIRTUAL</v>
+      </c>
+      <c r="N2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="O2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="P2" t="str">
+        <v>UUID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v>Client</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>file</v>
+      </c>
+      <c r="E1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="F1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>clientId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(64)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>UUID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>Client</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>language</v>
+      </c>
+      <c r="D1" t="str">
+        <v>code</v>
+      </c>
+      <c r="E1" t="str">
+        <v>name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>level1Id</v>
+      </c>
+      <c r="G1" t="str">
+        <v>level2Id</v>
+      </c>
+      <c r="H1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="I1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="J1" t="str">
+        <v>level3Id</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ENUM</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="F2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="G2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="I2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="J2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>TypeLevel1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>TypeLevel2</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v>TypeLevel3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>index</v>
+      </c>
+      <c r="D1" t="str">
+        <v>isOptional</v>
+      </c>
+      <c r="E1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="F1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ContractTemplateId</v>
+      </c>
+      <c r="H1" t="str">
+        <v>ClauseId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(8)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>BOOLEAN</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="H2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>ContractTemplate</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Clause</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -1106,37 +1995,37 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>status</v>
+        <v>type</v>
       </c>
       <c r="D1" t="str">
+        <v>clientId</v>
+      </c>
+      <c r="E1" t="str">
         <v>name</v>
       </c>
-      <c r="E1" t="str">
-        <v>paramValues</v>
-      </c>
       <c r="F1" t="str">
-        <v>excludedClauses</v>
+        <v>level1Id</v>
       </c>
       <c r="G1" t="str">
-        <v>excludedSubClauses</v>
+        <v>level2Id</v>
       </c>
       <c r="H1" t="str">
-        <v>annexes</v>
+        <v>level3Id</v>
       </c>
       <c r="I1" t="str">
-        <v>fileNames</v>
+        <v>level</v>
       </c>
       <c r="J1" t="str">
-        <v>clientId</v>
+        <v>createdAt</v>
       </c>
       <c r="K1" t="str">
-        <v>createdAt</v>
+        <v>updatedAt</v>
       </c>
       <c r="L1" t="str">
-        <v>updatedAt</v>
+        <v>contractId</v>
       </c>
       <c r="M1" t="str">
-        <v>templateId</v>
+        <v>contractAIId</v>
       </c>
     </row>
     <row r="2">
@@ -1147,34 +2036,34 @@
         <v>INTEGER</v>
       </c>
       <c r="C2" t="str">
+        <v>ENUM</v>
+      </c>
+      <c r="D2" t="str">
+        <v>UUID</v>
+      </c>
+      <c r="E2" t="str">
         <v>VARCHAR(255)</v>
       </c>
-      <c r="D2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TEXT</v>
-      </c>
       <c r="F2" t="str">
-        <v>TEXT</v>
+        <v>INTEGER</v>
       </c>
       <c r="G2" t="str">
-        <v>TEXT</v>
+        <v>INTEGER</v>
       </c>
       <c r="H2" t="str">
-        <v>TEXT</v>
+        <v>INTEGER</v>
       </c>
       <c r="I2" t="str">
         <v>VIRTUAL</v>
       </c>
       <c r="J2" t="str">
-        <v>UUID</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="K2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="L2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>INTEGER</v>
       </c>
       <c r="M2" t="str">
         <v>INTEGER</v>
@@ -1197,25 +2086,25 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="I3" t="str">
         <v/>
       </c>
       <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
         <v>Yes</v>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
       </c>
       <c r="M3" t="str">
         <v>Yes</v>
@@ -1238,28 +2127,28 @@
         <v/>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>TypeLevel1</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>TypeLevel2</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>TypeLevel3</v>
       </c>
       <c r="I4" t="str">
         <v/>
       </c>
       <c r="J4" t="str">
-        <v>Client</v>
+        <v/>
       </c>
       <c r="K4" t="str">
         <v/>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="M4" t="str">
-        <v>ContractTemplate</v>
+        <v>ContractAI</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +2158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -1284,37 +2173,37 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
+        <v>status</v>
+      </c>
+      <c r="D1" t="str">
         <v>name</v>
       </c>
-      <c r="D1" t="str">
-        <v>email</v>
-      </c>
       <c r="E1" t="str">
-        <v>jobTitle</v>
+        <v>file</v>
       </c>
       <c r="F1" t="str">
-        <v>passport</v>
+        <v>textFile</v>
       </c>
       <c r="G1" t="str">
-        <v>cin</v>
+        <v>openAIId</v>
       </c>
       <c r="H1" t="str">
-        <v>firstName</v>
+        <v>summarySheet</v>
       </c>
       <c r="I1" t="str">
-        <v>lastName</v>
+        <v>level1Id</v>
       </c>
       <c r="J1" t="str">
-        <v>dateOfBirth</v>
+        <v>level2Id</v>
       </c>
       <c r="K1" t="str">
-        <v>placeOfBirth</v>
+        <v>level3Id</v>
       </c>
       <c r="L1" t="str">
-        <v>address</v>
+        <v>clientId</v>
       </c>
       <c r="M1" t="str">
-        <v>fullName</v>
+        <v>level</v>
       </c>
       <c r="N1" t="str">
         <v>createdAt</v>
@@ -1323,7 +2212,7 @@
         <v>updatedAt</v>
       </c>
       <c r="P1" t="str">
-        <v>clientId</v>
+        <v>formId</v>
       </c>
     </row>
     <row r="2">
@@ -1337,31 +2226,31 @@
         <v>VARCHAR(255)</v>
       </c>
       <c r="D2" t="str">
-        <v>VARCHAR(50)</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="E2" t="str">
-        <v>VARCHAR(50)</v>
+        <v>VARCHAR(64)</v>
       </c>
       <c r="F2" t="str">
-        <v>VARCHAR(16)</v>
+        <v>VARCHAR(64)</v>
       </c>
       <c r="G2" t="str">
-        <v>VARCHAR(16)</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="H2" t="str">
-        <v>VARCHAR(50)</v>
+        <v>TEXT</v>
       </c>
       <c r="I2" t="str">
-        <v>VARCHAR(50)</v>
+        <v>INTEGER</v>
       </c>
       <c r="J2" t="str">
-        <v>DATE</v>
+        <v>INTEGER</v>
       </c>
       <c r="K2" t="str">
-        <v>VARCHAR(128)</v>
+        <v>INTEGER</v>
       </c>
       <c r="L2" t="str">
-        <v>TEXT</v>
+        <v>UUID</v>
       </c>
       <c r="M2" t="str">
         <v>VIRTUAL</v>
@@ -1373,7 +2262,7 @@
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="P2" t="str">
-        <v>UUID</v>
+        <v>INTEGER</v>
       </c>
     </row>
     <row r="3">
@@ -1402,16 +2291,16 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="M3" t="str">
         <v/>
@@ -1452,16 +2341,16 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>TypeLevel1</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>TypeLevel2</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>TypeLevel3</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>Client</v>
       </c>
       <c r="M4" t="str">
         <v/>
@@ -1473,7 +2362,7 @@
         <v/>
       </c>
       <c r="P4" t="str">
-        <v>Client</v>
+        <v>ContractAIForm</v>
       </c>
     </row>
   </sheetData>
@@ -1483,9 +2372,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1498,19 +2387,37 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
+        <v>language</v>
+      </c>
+      <c r="D1" t="str">
+        <v>code</v>
+      </c>
+      <c r="E1" t="str">
         <v>name</v>
       </c>
-      <c r="D1" t="str">
-        <v>file</v>
-      </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
+        <v>systemPrompt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>userPrompt</v>
+      </c>
+      <c r="H1" t="str">
+        <v>form</v>
+      </c>
+      <c r="I1" t="str">
+        <v>level1Id</v>
+      </c>
+      <c r="J1" t="str">
+        <v>level2Id</v>
+      </c>
+      <c r="K1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="F1" t="str">
+      <c r="L1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="G1" t="str">
-        <v>clientId</v>
+      <c r="M1" t="str">
+        <v>level3Id</v>
       </c>
     </row>
     <row r="2">
@@ -1521,19 +2428,37 @@
         <v>INTEGER</v>
       </c>
       <c r="C2" t="str">
+        <v>ENUM</v>
+      </c>
+      <c r="D2" t="str">
         <v>VARCHAR(255)</v>
       </c>
-      <c r="D2" t="str">
-        <v>VARCHAR(64)</v>
-      </c>
       <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="G2" t="str">
-        <v>UUID</v>
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="I2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="J2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="K2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="L2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="M2" t="str">
+        <v>INTEGER</v>
       </c>
     </row>
     <row r="3">
@@ -1547,15 +2472,33 @@
         <v/>
       </c>
       <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
         <v>Yes</v>
       </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
+      <c r="J3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -1579,17 +2522,153 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>Client</v>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>TypeLevel1</v>
+      </c>
+      <c r="J4" t="str">
+        <v>TypeLevel2</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v>TypeLevel3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>externalId</v>
+      </c>
+      <c r="D1" t="str">
+        <v>info</v>
+      </c>
+      <c r="E1" t="str">
+        <v>content</v>
+      </c>
+      <c r="F1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="H1" t="str">
+        <v>contractAIId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="H2" t="str">
+        <v>INTEGER</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>ContractAI</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -1604,28 +2683,28 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>language</v>
+        <v>title</v>
       </c>
       <c r="D1" t="str">
-        <v>code</v>
+        <v>flag</v>
       </c>
       <c r="E1" t="str">
-        <v>name</v>
+        <v>startDate</v>
       </c>
       <c r="F1" t="str">
-        <v>level1Id</v>
+        <v>endDate</v>
       </c>
       <c r="G1" t="str">
-        <v>level2Id</v>
+        <v>allDay</v>
       </c>
       <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>updatedAt</v>
-      </c>
-      <c r="J1" t="str">
-        <v>level3Id</v>
       </c>
     </row>
     <row r="2">
@@ -1636,28 +2715,28 @@
         <v>INTEGER</v>
       </c>
       <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
         <v>ENUM</v>
       </c>
-      <c r="D2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
       <c r="E2" t="str">
-        <v>VARCHAR(255)</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="F2" t="str">
-        <v>INTEGER</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="G2" t="str">
-        <v>INTEGER</v>
+        <v>BOOLEAN</v>
       </c>
       <c r="H2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>TEXT</v>
       </c>
       <c r="I2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="J2" t="str">
-        <v>INTEGER</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
     </row>
     <row r="3">
@@ -1677,10 +2756,10 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -1689,7 +2768,7 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -1709,10 +2788,10 @@
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>TypeLevel1</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>TypeLevel2</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -1721,7 +2800,7 @@
         <v/>
       </c>
       <c r="J4" t="str">
-        <v>TypeLevel3</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1731,9 +2810,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1746,22 +2825,16 @@
         <v>id</v>
       </c>
       <c r="C1" t="str">
-        <v>index</v>
+        <v>createdAt</v>
       </c>
       <c r="D1" t="str">
-        <v>isOptional</v>
+        <v>updatedAt</v>
       </c>
       <c r="E1" t="str">
-        <v>createdAt</v>
+        <v>EventId</v>
       </c>
       <c r="F1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ContractTemplateId</v>
-      </c>
-      <c r="H1" t="str">
-        <v>ClauseId</v>
+        <v>UserId</v>
       </c>
     </row>
     <row r="2">
@@ -1772,22 +2845,16 @@
         <v>INTEGER</v>
       </c>
       <c r="C2" t="str">
-        <v>VARCHAR(8)</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="D2" t="str">
-        <v>BOOLEAN</v>
+        <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
+        <v>INTEGER</v>
       </c>
       <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="H2" t="str">
-        <v>INTEGER</v>
+        <v>UUID</v>
       </c>
     </row>
     <row r="3">
@@ -1809,12 +2876,6 @@
       <c r="F3" t="str">
         <v/>
       </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1830,192 +2891,20 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>Event</v>
       </c>
       <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v>ContractTemplate</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Clause</v>
+        <v>User</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>status</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>file</v>
-      </c>
-      <c r="F1" t="str">
-        <v>textFile</v>
-      </c>
-      <c r="G1" t="str">
-        <v>openAIId</v>
-      </c>
-      <c r="H1" t="str">
-        <v>summarySheet</v>
-      </c>
-      <c r="I1" t="str">
-        <v>clientId</v>
-      </c>
-      <c r="J1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="K1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="L1" t="str">
-        <v>formId</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="E2" t="str">
-        <v>VARCHAR(64)</v>
-      </c>
-      <c r="F2" t="str">
-        <v>VARCHAR(64)</v>
-      </c>
-      <c r="G2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="H2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="I2" t="str">
-        <v>UUID</v>
-      </c>
-      <c r="J2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="K2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="L2" t="str">
-        <v>INTEGER</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>Client</v>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v>ContractAIForm</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2157,539 +3046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>language</v>
-      </c>
-      <c r="D1" t="str">
-        <v>code</v>
-      </c>
-      <c r="E1" t="str">
-        <v>name</v>
-      </c>
-      <c r="F1" t="str">
-        <v>systemPrompt</v>
-      </c>
-      <c r="G1" t="str">
-        <v>userPrompt</v>
-      </c>
-      <c r="H1" t="str">
-        <v>form</v>
-      </c>
-      <c r="I1" t="str">
-        <v>level1Id</v>
-      </c>
-      <c r="J1" t="str">
-        <v>level2Id</v>
-      </c>
-      <c r="K1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="L1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="M1" t="str">
-        <v>level3Id</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>ENUM</v>
-      </c>
-      <c r="D2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="E2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="F2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="G2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="H2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="I2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="J2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="K2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="L2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="M2" t="str">
-        <v>INTEGER</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>TypeLevel1</v>
-      </c>
-      <c r="J4" t="str">
-        <v>TypeLevel2</v>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <v>TypeLevel3</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>externalId</v>
-      </c>
-      <c r="D1" t="str">
-        <v>info</v>
-      </c>
-      <c r="E1" t="str">
-        <v>content</v>
-      </c>
-      <c r="F1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="G1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="H1" t="str">
-        <v>contractAIId</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="H2" t="str">
-        <v>INTEGER</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v>ContractAI</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>title</v>
-      </c>
-      <c r="D1" t="str">
-        <v>flag</v>
-      </c>
-      <c r="E1" t="str">
-        <v>startDate</v>
-      </c>
-      <c r="F1" t="str">
-        <v>endDate</v>
-      </c>
-      <c r="G1" t="str">
-        <v>allDay</v>
-      </c>
-      <c r="H1" t="str">
-        <v>description</v>
-      </c>
-      <c r="I1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="J1" t="str">
-        <v>updatedAt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>ENUM</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="F2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="H2" t="str">
-        <v>TEXT</v>
-      </c>
-      <c r="I2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="J2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="D1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="E1" t="str">
-        <v>EventId</v>
-      </c>
-      <c r="F1" t="str">
-        <v>UserId</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="E2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="F2" t="str">
-        <v>UUID</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>Event</v>
-      </c>
-      <c r="F4" t="str">
-        <v>User</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -2923,76 +3280,6 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:R4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="D1" t="str">
-        <v>updatedAt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>UUID</v>
-      </c>
-      <c r="C2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v>User</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3139,6 +3426,76 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="D1" t="str">
+        <v>updatedAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>UUID</v>
+      </c>
+      <c r="C2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v>User</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3267,7 +3624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3371,86 +3728,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="E1" t="str">
-        <v>updatedAt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>INTEGER</v>
-      </c>
-      <c r="C2" t="str">
-        <v>VARCHAR(255)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -1982,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2004,27 +2004,30 @@
         <v>name</v>
       </c>
       <c r="F1" t="str">
+        <v>status</v>
+      </c>
+      <c r="G1" t="str">
         <v>level1Id</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>level2Id</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>level3Id</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="K1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="L1" t="str">
         <v>level</v>
       </c>
-      <c r="J1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="K1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>contractId</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>contractAIId</v>
       </c>
     </row>
@@ -2045,7 +2048,7 @@
         <v>VARCHAR(255)</v>
       </c>
       <c r="F2" t="str">
-        <v>INTEGER</v>
+        <v>VARCHAR(255)</v>
       </c>
       <c r="G2" t="str">
         <v>INTEGER</v>
@@ -2054,18 +2057,21 @@
         <v>INTEGER</v>
       </c>
       <c r="I2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="J2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="K2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="L2" t="str">
         <v>VIRTUAL</v>
       </c>
-      <c r="J2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="K2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="L2" t="str">
-        <v>INTEGER</v>
-      </c>
       <c r="M2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="N2" t="str">
         <v>INTEGER</v>
       </c>
     </row>
@@ -2086,7 +2092,7 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <v>Yes</v>
@@ -2095,7 +2101,7 @@
         <v>Yes</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="J3" t="str">
         <v/>
@@ -2104,9 +2110,12 @@
         <v/>
       </c>
       <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
         <v>Yes</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -2127,17 +2136,17 @@
         <v/>
       </c>
       <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
         <v>TypeLevel1</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <v>TypeLevel2</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <v>TypeLevel3</v>
       </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
       <c r="J4" t="str">
         <v/>
       </c>
@@ -2145,22 +2154,25 @@
         <v/>
       </c>
       <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
         <v>Contract</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <v>ContractAI</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2191,27 +2203,30 @@
         <v>summarySheet</v>
       </c>
       <c r="I1" t="str">
+        <v>aiResponsesStatus</v>
+      </c>
+      <c r="J1" t="str">
         <v>level1Id</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>level2Id</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>level3Id</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>clientId</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>level</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>formId</v>
       </c>
     </row>
@@ -2241,7 +2256,7 @@
         <v>TEXT</v>
       </c>
       <c r="I2" t="str">
-        <v>INTEGER</v>
+        <v>TEXT</v>
       </c>
       <c r="J2" t="str">
         <v>INTEGER</v>
@@ -2250,18 +2265,21 @@
         <v>INTEGER</v>
       </c>
       <c r="L2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="M2" t="str">
         <v>UUID</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <v>VIRTUAL</v>
       </c>
-      <c r="N2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
       <c r="O2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="P2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="Q2" t="str">
         <v>INTEGER</v>
       </c>
     </row>
@@ -2291,7 +2309,7 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="J3" t="str">
         <v>Yes</v>
@@ -2303,7 +2321,7 @@
         <v>Yes</v>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -2312,6 +2330,9 @@
         <v/>
       </c>
       <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -2341,20 +2362,20 @@
         <v/>
       </c>
       <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
         <v>TypeLevel1</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <v>TypeLevel2</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <v>TypeLevel3</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <v>Client</v>
       </c>
-      <c r="M4" t="str">
-        <v/>
-      </c>
       <c r="N4" t="str">
         <v/>
       </c>
@@ -2362,12 +2383,15 @@
         <v/>
       </c>
       <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
         <v>ContractAIForm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
   </ignoredErrors>
 </worksheet>
 </file>
